--- a/trip.xlsx
+++ b/trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t xml:space="preserve">From </t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Part</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>estimated price</t>
+  </si>
+  <si>
+    <t>HOTELS</t>
   </si>
 </sst>
 </file>
@@ -538,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,16 +559,16 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
@@ -575,27 +584,30 @@
       <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>43710.208333333336</v>
       </c>
@@ -603,271 +615,294 @@
         <v>2</v>
       </c>
       <c r="C2" s="6">
-        <f>A2+(ROUNDUP(I2,0)/24)</f>
+        <f>A2+(ROUNDUP(J2,0)/24)</f>
         <v>43710.375</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="14">
+      <c r="F2" s="7"/>
+      <c r="G2" s="14">
         <v>10</v>
       </c>
-      <c r="G2" s="14">
+      <c r="H2" s="14">
         <v>295</v>
       </c>
-      <c r="H2" s="14">
+      <c r="I2" s="14">
         <f>3*60+9</f>
         <v>189</v>
       </c>
-      <c r="I2" s="11">
-        <f>(H2/60)+(1/3)</f>
+      <c r="J2" s="11">
+        <f>(I2/60)+(1/3)</f>
         <v>3.4833333333333334</v>
       </c>
-      <c r="J2" s="12">
-        <f>IF(ROUNDUP(I2,0) &gt; 4, ROUNDUP(I2,0) + 1, ROUNDUP(I2,0))</f>
+      <c r="K2" s="12">
+        <f>IF(ROUNDUP(J2,0) &gt; 4, ROUNDUP(J2,0) + 1, ROUNDUP(J2,0))</f>
         <v>4</v>
       </c>
-      <c r="K2" s="8">
-        <f>G2/I2</f>
+      <c r="L2" s="8">
+        <f>H2/J2</f>
         <v>84.68899521531101</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <f>C2+(ROUND(F2,0)/24)</f>
+        <f>C2+(ROUND(G2,0)/24)</f>
         <v>43710.791666666664</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3">
-        <f>A3+(ROUNDUP(I3,0)/24)</f>
+        <f>A3+(ROUNDUP(J3,0)/24)</f>
         <v>43710.916666666664</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="15">
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4">
+        <v>175</v>
+      </c>
+      <c r="G3" s="15">
         <v>45</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>201</v>
       </c>
-      <c r="H3" s="15">
+      <c r="I3" s="15">
         <f>2*60 +19</f>
         <v>139</v>
       </c>
-      <c r="I3" s="11">
-        <f t="shared" ref="I3:I9" si="0">(H3/60)+(1/3)</f>
+      <c r="J3" s="11">
+        <f t="shared" ref="J3:J9" si="0">(I3/60)+(1/3)</f>
         <v>2.6500000000000004</v>
       </c>
-      <c r="J3" s="12">
-        <f t="shared" ref="J3:J9" si="1">IF(ROUNDUP(I3,0) &gt; 4, ROUNDUP(I3,0) + 1, ROUNDUP(I3,0))</f>
+      <c r="K3" s="12">
+        <f t="shared" ref="K3:K9" si="1">IF(ROUNDUP(J3,0) &gt; 4, ROUNDUP(J3,0) + 1, ROUNDUP(J3,0))</f>
         <v>3</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3" si="2">G3/I3</f>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3" si="2">H3/J3</f>
         <v>75.849056603773576</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f>C3+(ROUND(F3,0)/24)</f>
+        <f>C3+(ROUND(G3,0)/24)</f>
         <v>43712.791666666664</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4" si="3">A4+(ROUNDUP(I4,0)/24)</f>
+        <f t="shared" ref="C4" si="3">A4+(ROUNDUP(J4,0)/24)</f>
         <v>43712.916666666664</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="15">
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4">
+        <v>75</v>
+      </c>
+      <c r="G4" s="15">
         <v>21</v>
       </c>
-      <c r="G4" s="15">
+      <c r="H4" s="15">
         <v>240</v>
       </c>
-      <c r="H4" s="15">
+      <c r="I4" s="15">
         <f>2*60 +40</f>
         <v>160</v>
       </c>
-      <c r="I4" s="11">
+      <c r="J4" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J4" s="12">
+      <c r="K4" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4" si="4">G4/I4</f>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4" si="4">H4/J4</f>
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <f>C4+(ROUND(F4,0)/24)</f>
+        <f>C4+(ROUND(G4,0)/24)</f>
         <v>43713.791666666664</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5" si="5">A5+(ROUNDUP(I5,0)/24)</f>
+        <f t="shared" ref="C5" si="5">A5+(ROUNDUP(J5,0)/24)</f>
         <v>43714.083333333328</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="15">
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4">
+        <v>60</v>
+      </c>
+      <c r="G5" s="15">
         <v>31</v>
       </c>
-      <c r="G5" s="15">
+      <c r="H5" s="15">
         <v>460</v>
       </c>
-      <c r="H5" s="15">
+      <c r="I5" s="15">
         <f>5*60 +45</f>
         <v>345</v>
       </c>
-      <c r="I5" s="11">
-        <f>(H5/60)+(1/3)</f>
+      <c r="J5" s="11">
+        <f>(I5/60)+(1/3)</f>
         <v>6.083333333333333</v>
       </c>
-      <c r="J5" s="12">
-        <f>ROUNDUP(I5,0)</f>
+      <c r="K5" s="12">
+        <f>ROUNDUP(J5,0)</f>
         <v>7</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" ref="K5" si="6">G5/I5</f>
+      <c r="L5" s="5">
+        <f t="shared" ref="L5" si="6">H5/J5</f>
         <v>75.61643835616438</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>C5+(ROUND(F5,0)/24)</f>
+        <f>C5+(ROUND(G5,0)/24)</f>
         <v>43715.374999999993</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <f>A6+(ROUNDUP(I6,0)/24)</f>
+        <f>A6+(ROUNDUP(J6,0)/24)</f>
         <v>43715.749999999993</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="15">
+      <c r="F6" s="4"/>
+      <c r="G6" s="15">
         <v>137</v>
       </c>
-      <c r="G6" s="15">
+      <c r="H6" s="15">
         <v>533</v>
       </c>
-      <c r="H6" s="15">
+      <c r="I6" s="15">
         <f>8*60+35</f>
         <v>515</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
         <v>8.9166666666666679</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" ref="K6:K8" si="7">G6/I6</f>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6:L8" si="7">H6/J6</f>
         <v>59.775700934579433</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <f>C6+(ROUND(F6,0)/24)</f>
+        <f>C6+(ROUND(G6,0)/24)</f>
         <v>43721.458333333328</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="20">
-        <f>A7+(ROUNDUP(I7,0)/24)</f>
+        <f>A7+(ROUNDUP(J7,0)/24)</f>
         <v>43721.833333333328</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="21"/>
-      <c r="F7" s="15">
+      <c r="F7" s="21">
+        <v>75</v>
+      </c>
+      <c r="G7" s="15">
         <v>16</v>
       </c>
-      <c r="G7" s="15">
+      <c r="H7" s="15">
         <v>559</v>
       </c>
-      <c r="H7" s="15">
+      <c r="I7" s="15">
         <f>8*60+36</f>
         <v>516</v>
       </c>
-      <c r="I7" s="22">
+      <c r="J7" s="22">
         <f t="shared" si="0"/>
         <v>8.9333333333333336</v>
       </c>
-      <c r="J7" s="23">
+      <c r="K7" s="23">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K7" s="24">
+      <c r="L7" s="24">
         <f t="shared" si="7"/>
         <v>62.57462686567164</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
-        <f t="shared" ref="A8:A9" si="8">C7+(ROUND(F7,0)/24)</f>
+        <f t="shared" ref="A8:A9" si="8">C7+(ROUND(G7,0)/24)</f>
         <v>43722.499999999993</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="20">
-        <f>A8+(ROUNDUP(I8,0)/24)</f>
+        <f>A8+(ROUNDUP(J8,0)/24)</f>
         <v>43722.791666666657</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="15">
+      <c r="F8" s="21">
+        <v>75</v>
+      </c>
+      <c r="G8" s="15">
         <v>12</v>
       </c>
-      <c r="G8" s="15">
+      <c r="H8" s="15">
         <v>419</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I8" s="15">
         <f>5*60+43</f>
         <v>343</v>
       </c>
-      <c r="I8" s="22">
+      <c r="J8" s="22">
         <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
-      <c r="J8" s="23">
+      <c r="K8" s="23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K8" s="24">
+      <c r="L8" s="24">
         <f t="shared" si="7"/>
         <v>69.256198347107443</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <f t="shared" si="8"/>
         <v>43723.291666666657</v>
@@ -876,68 +911,83 @@
         <v>11</v>
       </c>
       <c r="C9" s="20">
-        <f>A9+(ROUNDUP(I9,0)/24)</f>
+        <f>A9+(ROUNDUP(J9,0)/24)</f>
         <v>43723.624999999993</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E9" s="21"/>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="15">
+      <c r="H9" s="15">
         <v>685</v>
       </c>
-      <c r="H9" s="15">
+      <c r="I9" s="15">
         <f>6*60+41</f>
         <v>401</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="22">
         <f t="shared" si="0"/>
         <v>7.0166666666666666</v>
       </c>
-      <c r="J9" s="23">
+      <c r="K9" s="23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K9" s="24">
-        <f t="shared" ref="K9" si="9">G9/I9</f>
+      <c r="L9" s="24">
+        <f t="shared" ref="L9" si="9">H9/J9</f>
         <v>97.62470308788599</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G10">
-        <f>SUM(G2:G9)</f>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>SUM(H2:H9)</f>
         <v>3392</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G11">
-        <f>(G10/100)*9*1.4</f>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F9)</f>
+        <v>460</v>
+      </c>
+      <c r="H11">
+        <f>(H10/100)*9*1.4</f>
         <v>427.392</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G12" s="19">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="19">
         <v>636</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>14*30</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J5" formula="1"/>
+    <ignoredError sqref="K5" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/trip.xlsx
+++ b/trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t xml:space="preserve">From </t>
   </si>
@@ -89,6 +89,18 @@
   </si>
   <si>
     <t>HOTELS</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Daily Allowance</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diesel </t>
   </si>
 </sst>
 </file>
@@ -99,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +123,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -242,6 +260,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,7 +570,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,14 +977,20 @@
         <v>460</v>
       </c>
       <c r="H11">
-        <f>(H10/100)*9*1.4</f>
-        <v>427.392</v>
+        <f>(H10/100)*6*1.4</f>
+        <v>284.928</v>
       </c>
       <c r="I11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
       <c r="H12" s="19">
         <v>636</v>
       </c>
@@ -973,15 +999,32 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
       <c r="F13">
-        <f>14*30</f>
-        <v>420</v>
+        <f>10*50</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="26">
+        <f>H11</f>
+        <v>284.928</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="25">
+        <f>SUM(F11,H11,F13)</f>
+        <v>1244.9279999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trip.xlsx
+++ b/trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t xml:space="preserve">From </t>
   </si>
@@ -76,15 +76,9 @@
     <t>euro diesel</t>
   </si>
   <si>
-    <t>flight cost 2 people</t>
-  </si>
-  <si>
     <t>Part</t>
   </si>
   <si>
-    <t>hotel</t>
-  </si>
-  <si>
     <t>estimated price</t>
   </si>
   <si>
@@ -101,6 +95,15 @@
   </si>
   <si>
     <t xml:space="preserve">Diesel </t>
+  </si>
+  <si>
+    <t>https://mail.google.com/mail/u/0/#inbox/FMfcgxwDqnqjNGgCJPWkTxrbhqqGztDx</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/mail/u/0/#category/updates/FMfcgxwDqnqjNHnkVqvwvnWrWnxdbQKp</t>
+  </si>
+  <si>
+    <t>https://mail.google.com/mail/u/0/#category/updates/FMfcgxwDqnqjWSBzJvMNkNkBxcvXFJnF</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,11 +232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -241,11 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -260,8 +260,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,9 +593,9 @@
     <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
@@ -589,218 +604,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="22">
         <v>43710.208333333336</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="22">
         <f>A2+(ROUNDUP(J2,0)/24)</f>
         <v>43710.375</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="14">
+      <c r="E2" s="23">
         <v>10</v>
       </c>
-      <c r="H2" s="14">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23">
         <v>295</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="23">
         <f>3*60+9</f>
         <v>189</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="24">
         <f>(I2/60)+(1/3)</f>
         <v>3.4833333333333334</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="25">
         <f>IF(ROUNDUP(J2,0) &gt; 4, ROUNDUP(J2,0) + 1, ROUNDUP(J2,0))</f>
         <v>4</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="26">
         <f>H2/J2</f>
         <v>84.68899521531101</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <f>C2+(ROUND(G2,0)/24)</f>
+      <c r="A3" s="27">
+        <f>C2+(ROUND(E2,0)/24)</f>
         <v>43710.791666666664</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="27">
         <f>A3+(ROUNDUP(J3,0)/24)</f>
         <v>43710.916666666664</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4">
-        <v>175</v>
-      </c>
-      <c r="G3" s="15">
+      <c r="E3" s="28">
         <v>45</v>
       </c>
-      <c r="H3" s="15">
+      <c r="F3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="28">
+        <v>130</v>
+      </c>
+      <c r="H3" s="28">
         <v>201</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="28">
         <f>2*60 +19</f>
         <v>139</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="24">
         <f t="shared" ref="J3:J9" si="0">(I3/60)+(1/3)</f>
         <v>2.6500000000000004</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="25">
         <f t="shared" ref="K3:K9" si="1">IF(ROUNDUP(J3,0) &gt; 4, ROUNDUP(J3,0) + 1, ROUNDUP(J3,0))</f>
         <v>3</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="29">
         <f t="shared" ref="L3" si="2">H3/J3</f>
         <v>75.849056603773576</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f>C3+(ROUND(G3,0)/24)</f>
+      <c r="A4" s="27">
+        <f>C3+(ROUND(E3,0)/24)</f>
         <v>43712.791666666664</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
-        <f t="shared" ref="C4" si="3">A4+(ROUNDUP(J4,0)/24)</f>
+      <c r="C4" s="27">
+        <f>A4+(ROUNDUP(J4,0)/24)</f>
         <v>43712.916666666664</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4">
-        <v>75</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="E4" s="28">
         <v>21</v>
       </c>
-      <c r="H4" s="15">
+      <c r="F4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="28">
+        <v>52</v>
+      </c>
+      <c r="H4" s="28">
         <v>240</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="28">
         <f>2*60 +40</f>
         <v>160</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="24">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="25">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4" si="4">H4/J4</f>
+      <c r="L4" s="29">
+        <f t="shared" ref="L4" si="3">H4/J4</f>
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f>C4+(ROUND(G4,0)/24)</f>
+      <c r="A5" s="27">
+        <f>C4+(ROUND(E4,0)/24)</f>
         <v>43713.791666666664</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <f t="shared" ref="C5" si="5">A5+(ROUNDUP(J5,0)/24)</f>
+      <c r="C5" s="27">
+        <f>A5+(ROUNDUP(J5,0)/24)</f>
         <v>43714.083333333328</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4">
-        <v>60</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="E5" s="28">
         <v>31</v>
       </c>
-      <c r="H5" s="15">
+      <c r="F5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="28">
+        <v>97</v>
+      </c>
+      <c r="H5" s="28">
         <v>460</v>
       </c>
-      <c r="I5" s="15">
-        <f>5*60 +45</f>
-        <v>345</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="I5" s="28">
+        <f>6*60</f>
+        <v>360</v>
+      </c>
+      <c r="J5" s="24">
         <f>(I5/60)+(1/3)</f>
-        <v>6.083333333333333</v>
-      </c>
-      <c r="K5" s="12">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="K5" s="25">
         <f>ROUNDUP(J5,0)</f>
         <v>7</v>
       </c>
-      <c r="L5" s="5">
-        <f t="shared" ref="L5" si="6">H5/J5</f>
-        <v>75.61643835616438</v>
+      <c r="L5" s="29">
+        <f t="shared" ref="L5" si="4">H5/J5</f>
+        <v>72.631578947368425</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>C5+(ROUND(G5,0)/24)</f>
+        <f>C5+(ROUND(E5,0)/24)</f>
         <v>43715.374999999993</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -813,152 +828,152 @@
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="11">
+        <v>130</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="15">
-        <v>137</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="G6" s="4"/>
+      <c r="H6" s="11">
         <v>533</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <f>8*60+35</f>
         <v>515</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <f t="shared" si="0"/>
         <v>8.9166666666666679</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L8" si="7">H6/J6</f>
+        <f t="shared" ref="L6:L8" si="5">H6/J6</f>
         <v>59.775700934579433</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <f>C6+(ROUND(G6,0)/24)</f>
-        <v>43721.458333333328</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="15">
+        <f>C6+(ROUND(E6,0)/24)</f>
+        <v>43721.166666666657</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <f>A7+(ROUNDUP(J7,0)/24)</f>
-        <v>43721.833333333328</v>
-      </c>
-      <c r="D7" s="21" t="s">
+        <v>43721.541666666657</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21">
+      <c r="E7" s="11">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16">
         <v>75</v>
       </c>
-      <c r="G7" s="15">
-        <v>16</v>
-      </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>559</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <f>8*60+36</f>
         <v>516</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="17">
         <f t="shared" si="0"/>
         <v>8.9333333333333336</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="18">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L7" s="24">
-        <f t="shared" si="7"/>
+      <c r="L7" s="19">
+        <f t="shared" si="5"/>
         <v>62.57462686567164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <f t="shared" ref="A8:A9" si="8">C7+(ROUND(G7,0)/24)</f>
-        <v>43722.499999999993</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="15">
+        <f>C7+(ROUND(E7,0)/24)</f>
+        <v>43722.374999999993</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <f>A8+(ROUNDUP(J8,0)/24)</f>
-        <v>43722.791666666657</v>
-      </c>
-      <c r="D8" s="21" t="s">
+        <v>43722.666666666657</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21">
+      <c r="E8" s="11">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16">
         <v>75</v>
       </c>
-      <c r="G8" s="15">
-        <v>12</v>
-      </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>419</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="11">
         <f>5*60+43</f>
         <v>343</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="17">
         <f t="shared" si="0"/>
         <v>6.05</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L8" s="24">
-        <f t="shared" si="7"/>
+      <c r="L8" s="19">
+        <f t="shared" si="5"/>
         <v>69.256198347107443</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
-        <f t="shared" si="8"/>
-        <v>43723.291666666657</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="15">
+        <f>C8+(ROUND(E8,0)/24)</f>
+        <v>43723.416666666657</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <f>A9+(ROUNDUP(J9,0)/24)</f>
-        <v>43723.624999999993</v>
-      </c>
-      <c r="D9" s="21" t="s">
+        <v>43723.749999999993</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="15">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="11">
         <v>685</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="11">
         <f>6*60+41</f>
         <v>401</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="17">
         <f t="shared" si="0"/>
         <v>7.0166666666666666</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="18">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L9" s="24">
-        <f t="shared" ref="L9" si="9">H9/J9</f>
+      <c r="L9" s="19">
+        <f t="shared" ref="L9" si="6">H9/J9</f>
         <v>97.62470308788599</v>
       </c>
     </row>
@@ -969,12 +984,12 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11">
-        <f>SUM(F2:F9)</f>
-        <v>460</v>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G2:G9)</f>
+        <v>429</v>
       </c>
       <c r="H11">
         <f>(H10/100)*6*1.4</f>
@@ -985,50 +1000,50 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12">
         <v>200</v>
       </c>
-      <c r="H12" s="19">
-        <v>636</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
         <f>10*50</f>
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="20">
         <f>H11</f>
         <v>284.928</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="17"/>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="25">
-        <f>SUM(F11,H11,F13)</f>
-        <v>1244.9279999999999</v>
+      <c r="D15" s="12"/>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="21">
+        <f>SUM(G14,G13,G12,G11)</f>
+        <v>1413.9279999999999</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" location="inbox/FMfcgxwDqnqjNGgCJPWkTxrbhqqGztDx" display="inbox/FMfcgxwDqnqjNGgCJPWkTxrbhqqGztDx"/>
+    <hyperlink ref="F4" r:id="rId2" location="category/updates/FMfcgxwDqnqjNHnkVqvwvnWrWnxdbQKp" display="https://mail.google.com/mail/u/0/ - category/updates/FMfcgxwDqnqjNHnkVqvwvnWrWnxdbQKp"/>
+    <hyperlink ref="F5" r:id="rId3" location="category/updates/FMfcgxwDqnqjWSBzJvMNkNkBxcvXFJnF" display="https://mail.google.com/mail/u/0/ - category/updates/FMfcgxwDqnqjWSBzJvMNkNkBxcvXFJnF"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <ignoredErrors>
     <ignoredError sqref="K5" formula="1"/>
   </ignoredErrors>

--- a/trip.xlsx
+++ b/trip.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">From </t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>https://mail.google.com/mail/u/0/#category/updates/FMfcgxwDqnqjWSBzJvMNkNkBxcvXFJnF</t>
+  </si>
+  <si>
+    <t>10 pm must be there</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -277,6 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -585,7 +598,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +614,7 @@
     <col min="10" max="10" width="5.140625" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -650,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="22">
-        <f>A2+(ROUNDUP(J2,0)/24)</f>
+        <f t="shared" ref="C2:C9" si="0">A2+(ROUNDUP(J2,0)/24)</f>
         <v>43710.375</v>
       </c>
       <c r="D2" s="23" t="s">
@@ -683,14 +697,14 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
-        <f>C2+(ROUND(E2,0)/24)</f>
+        <f t="shared" ref="A3:A9" si="1">C2+(ROUND(E2,0)/24)</f>
         <v>43710.791666666664</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="27">
-        <f>A3+(ROUNDUP(J3,0)/24)</f>
+      <c r="C3" s="31">
+        <f t="shared" si="0"/>
         <v>43710.916666666664</v>
       </c>
       <c r="D3" s="28" t="s">
@@ -713,28 +727,31 @@
         <v>139</v>
       </c>
       <c r="J3" s="24">
-        <f t="shared" ref="J3:J9" si="0">(I3/60)+(1/3)</f>
+        <f t="shared" ref="J3:J9" si="2">(I3/60)+(1/3)</f>
         <v>2.6500000000000004</v>
       </c>
       <c r="K3" s="25">
-        <f t="shared" ref="K3:K9" si="1">IF(ROUNDUP(J3,0) &gt; 4, ROUNDUP(J3,0) + 1, ROUNDUP(J3,0))</f>
+        <f t="shared" ref="K3:K9" si="3">IF(ROUNDUP(J3,0) &gt; 4, ROUNDUP(J3,0) + 1, ROUNDUP(J3,0))</f>
         <v>3</v>
       </c>
       <c r="L3" s="29">
-        <f t="shared" ref="L3" si="2">H3/J3</f>
+        <f t="shared" ref="L3" si="4">H3/J3</f>
         <v>75.849056603773576</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
-        <f>C3+(ROUND(E3,0)/24)</f>
+        <f t="shared" si="1"/>
         <v>43712.791666666664</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="27">
-        <f>A4+(ROUNDUP(J4,0)/24)</f>
+        <f t="shared" si="0"/>
         <v>43712.916666666664</v>
       </c>
       <c r="D4" s="28" t="s">
@@ -757,28 +774,28 @@
         <v>160</v>
       </c>
       <c r="J4" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="K4" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L4" s="29">
-        <f t="shared" ref="L4" si="3">H4/J4</f>
+        <f t="shared" ref="L4" si="5">H4/J4</f>
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
-        <f>C4+(ROUND(E4,0)/24)</f>
+        <f t="shared" si="1"/>
         <v>43713.791666666664</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="27">
-        <f>A5+(ROUNDUP(J5,0)/24)</f>
+        <f t="shared" si="0"/>
         <v>43714.083333333328</v>
       </c>
       <c r="D5" s="28" t="s">
@@ -809,20 +826,20 @@
         <v>7</v>
       </c>
       <c r="L5" s="29">
-        <f t="shared" ref="L5" si="4">H5/J5</f>
+        <f t="shared" ref="L5" si="6">H5/J5</f>
         <v>72.631578947368425</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>C5+(ROUND(E5,0)/24)</f>
+        <f t="shared" si="1"/>
         <v>43715.374999999993</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <f>A6+(ROUNDUP(J6,0)/24)</f>
+        <f t="shared" si="0"/>
         <v>43715.749999999993</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -841,28 +858,28 @@
         <v>515</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9166666666666679</v>
       </c>
       <c r="K6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" ref="L6:L8" si="5">H6/J6</f>
+        <f t="shared" ref="L6:L8" si="7">H6/J6</f>
         <v>59.775700934579433</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
-        <f>C6+(ROUND(E6,0)/24)</f>
+        <f t="shared" si="1"/>
         <v>43721.166666666657</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="15">
-        <f>A7+(ROUNDUP(J7,0)/24)</f>
+        <f t="shared" si="0"/>
         <v>43721.541666666657</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -883,28 +900,28 @@
         <v>516</v>
       </c>
       <c r="J7" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9333333333333336</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="L7" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>62.57462686567164</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
-        <f>C7+(ROUND(E7,0)/24)</f>
+        <f t="shared" si="1"/>
         <v>43722.374999999993</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="15">
-        <f>A8+(ROUNDUP(J8,0)/24)</f>
+        <f t="shared" si="0"/>
         <v>43722.666666666657</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -925,28 +942,28 @@
         <v>343</v>
       </c>
       <c r="J8" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.05</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L8" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69.256198347107443</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
-        <f>C8+(ROUND(E8,0)/24)</f>
+        <f t="shared" si="1"/>
         <v>43723.416666666657</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="15">
-        <f>A9+(ROUNDUP(J9,0)/24)</f>
+        <f t="shared" si="0"/>
         <v>43723.749999999993</v>
       </c>
       <c r="D9" s="16" t="s">
@@ -965,15 +982,15 @@
         <v>401</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.0166666666666666</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="L9" s="19">
-        <f t="shared" ref="L9" si="6">H9/J9</f>
+        <f t="shared" ref="L9" si="8">H9/J9</f>
         <v>97.62470308788599</v>
       </c>
     </row>
